--- a/tests/assets/test.xlsx
+++ b/tests/assets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianwelsh/Development/sedaro/sedaro-python/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7E73B4-E0D8-0B46-BCC5-B80A5A11AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6090F8B4-F5E7-F645-911A-974E5A51A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="8420" windowWidth="18100" windowHeight="12400" xr2:uid="{B1984F9E-194C-4443-874B-4D29D6090054}"/>
+    <workbookView xWindow="5300" yWindow="4740" windowWidth="24740" windowHeight="14780" xr2:uid="{B1984F9E-194C-4443-874B-4D29D6090054}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>time</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Intentionally a string date intead of a native excel date</t>
+  </si>
+  <si>
+    <t>6/8/24 15:14:20</t>
   </si>
 </sst>
 </file>
@@ -515,9 +521,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD6264B-8BE2-B949-AA4D-C2F99E350805}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +911,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45451.634930555556</v>
       </c>
@@ -932,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45451.634942129633</v>
       </c>
@@ -946,9 +953,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45451.634953703702</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -958,6 +965,9 @@
       </c>
       <c r="D4">
         <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
